--- a/final_data/datasheet.xlsx
+++ b/final_data/datasheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="31">
   <si>
     <t>highest, highest</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>low, low</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I99"/>
+  <dimension ref="B1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,12 +455,12 @@
     <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +485,14 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -493,8 +514,17 @@
       <c r="H3">
         <v>31.260055830500001</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>1734</v>
+      </c>
+      <c r="N3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -516,8 +546,17 @@
       <c r="H4">
         <v>28.5165942659</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>921</v>
+      </c>
+      <c r="N4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -539,8 +578,17 @@
       <c r="H5">
         <v>27.256418031100001</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>102</v>
+      </c>
+      <c r="N5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -563,7 +611,7 @@
         <v>26.658619517199998</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -586,7 +634,7 @@
         <v>27.2074977061</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -609,7 +657,7 @@
         <v>27.1068599812</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -632,7 +680,7 @@
         <v>25.5164102986</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -655,7 +703,7 @@
         <v>26.084010840099999</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -678,7 +726,7 @@
         <v>25.858579429700001</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -704,7 +752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -712,22 +760,22 @@
         <v>0.24413000000000001</v>
       </c>
       <c r="D14">
-        <v>7783.8434208899998</v>
+        <v>5300.1004696800001</v>
       </c>
       <c r="E14">
-        <v>3186.5468214699999</v>
+        <v>1256.4564529300001</v>
       </c>
       <c r="F14">
-        <v>1162.32204035</v>
+        <v>847.32872166599998</v>
       </c>
       <c r="G14">
-        <v>34.985090724499997</v>
+        <v>26.864610986300001</v>
       </c>
       <c r="H14">
-        <v>31.260055830500001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+        <v>24.469726363100001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -735,22 +783,22 @@
         <v>0.24378</v>
       </c>
       <c r="D15">
-        <v>7662.5995945599998</v>
+        <v>4992.6772638900002</v>
       </c>
       <c r="E15">
-        <v>3170.4847379100001</v>
+        <v>1171.03616556</v>
       </c>
       <c r="F15">
-        <v>1078.05340284</v>
+        <v>689.981329985</v>
       </c>
       <c r="G15">
-        <v>32.095105705199998</v>
+        <v>25.990077758000002</v>
       </c>
       <c r="H15">
-        <v>28.5165942659</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>23.4252389438</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -758,19 +806,19 @@
         <v>0.24507999999999999</v>
       </c>
       <c r="D16">
-        <v>7665.7052759199996</v>
+        <v>5099.4687687300002</v>
       </c>
       <c r="E16">
-        <v>3192.7050232500001</v>
+        <v>1193.0959295600001</v>
       </c>
       <c r="F16">
-        <v>1080.8362138699999</v>
+        <v>750.37362282799995</v>
       </c>
       <c r="G16">
-        <v>30.775874267199999</v>
+        <v>25.445397132699998</v>
       </c>
       <c r="H16">
-        <v>27.256418031100001</v>
+        <v>23.285760383500001</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -781,19 +829,19 @@
         <v>0.21609999999999999</v>
       </c>
       <c r="D17">
-        <v>7766.7514450899998</v>
+        <v>5753.1309665099998</v>
       </c>
       <c r="E17">
-        <v>2841.2932676</v>
+        <v>1171.0369626700001</v>
       </c>
       <c r="F17">
-        <v>1609.33602516</v>
+        <v>1412.5418454000001</v>
       </c>
       <c r="G17">
-        <v>30.133032982</v>
+        <v>25.5175686776</v>
       </c>
       <c r="H17">
-        <v>26.658619517199998</v>
+        <v>23.407684585199998</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -804,19 +852,19 @@
         <v>0.21484</v>
       </c>
       <c r="D18">
-        <v>9128.6177742799991</v>
+        <v>6259.1270447099996</v>
       </c>
       <c r="E18">
-        <v>3265.6872460300001</v>
+        <v>1314.73456925</v>
       </c>
       <c r="F18">
-        <v>2367.7428234399999</v>
+        <v>1695.74503817</v>
       </c>
       <c r="G18">
-        <v>30.6505439769</v>
+        <v>25.855616139599999</v>
       </c>
       <c r="H18">
-        <v>27.2074977061</v>
+        <v>23.689422028399999</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -827,19 +875,19 @@
         <v>0.21629999999999999</v>
       </c>
       <c r="D19">
-        <v>9128.4330782699999</v>
+        <v>6253.5180295099999</v>
       </c>
       <c r="E19">
-        <v>3246.65861189</v>
+        <v>1308.45356707</v>
       </c>
       <c r="F19">
-        <v>2369.9853671599999</v>
+        <v>1690.9522911399999</v>
       </c>
       <c r="G19">
-        <v>30.597395623600001</v>
+        <v>25.8543215356</v>
       </c>
       <c r="H19">
-        <v>27.1068599812</v>
+        <v>23.648285809400001</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -850,19 +898,19 @@
         <v>0.12595000000000001</v>
       </c>
       <c r="D20">
-        <v>5496.6339557499996</v>
+        <v>4500.0815793499996</v>
       </c>
       <c r="E20">
-        <v>1794.9918565400001</v>
+        <v>943.13012751600002</v>
       </c>
       <c r="F20">
-        <v>707.145430616</v>
+        <v>612.09724996199998</v>
       </c>
       <c r="G20">
-        <v>28.113514847400001</v>
+        <v>25.022584114299999</v>
       </c>
       <c r="H20">
-        <v>25.5164102986</v>
+        <v>22.797972038699999</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -873,19 +921,19 @@
         <v>0.12747</v>
       </c>
       <c r="D21">
-        <v>8262.97615176</v>
+        <v>5531.2048299400003</v>
       </c>
       <c r="E21">
-        <v>3361.0545618800002</v>
+        <v>1353.23694525</v>
       </c>
       <c r="F21">
-        <v>1508.5627822900001</v>
+        <v>1025.62017954</v>
       </c>
       <c r="G21">
-        <v>29.698464317999999</v>
+        <v>25.5226956632</v>
       </c>
       <c r="H21">
-        <v>26.084010840099999</v>
+        <v>23.102667846799999</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -896,19 +944,19 @@
         <v>0.12922</v>
       </c>
       <c r="D22">
-        <v>7894.4045315699996</v>
+        <v>5501.6176986700002</v>
       </c>
       <c r="E22">
-        <v>3380.8701629299999</v>
+        <v>1355.5518927000001</v>
       </c>
       <c r="F22">
-        <v>1190.9994908399999</v>
+        <v>1000.73690148</v>
       </c>
       <c r="G22">
-        <v>29.624363543800001</v>
+        <v>25.4314364502</v>
       </c>
       <c r="H22">
-        <v>25.858579429700001</v>
+        <v>23.270619202799999</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">

--- a/final_data/datasheet.xlsx
+++ b/final_data/datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>resnet, jpeg</t>
   </si>
@@ -120,6 +120,114 @@
   </si>
   <si>
     <t>high, high</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>GPU Power</t>
+  </si>
+  <si>
+    <t>CPU Power</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>GoogLeNet (H)</t>
+  </si>
+  <si>
+    <t>GoogLeNet (M)</t>
+  </si>
+  <si>
+    <t>GoogLeNet (L)</t>
+  </si>
+  <si>
+    <t>AlexNet (H)</t>
+  </si>
+  <si>
+    <t>ResNet (H)</t>
+  </si>
+  <si>
+    <t>ResNet (M)</t>
+  </si>
+  <si>
+    <t>ResNet (L)</t>
+  </si>
+  <si>
+    <t>AlexNet (M)</t>
+  </si>
+  <si>
+    <t>AlexNet (L)</t>
+  </si>
+  <si>
+    <t>jpeg,bitcount,bitcount</t>
+  </si>
+  <si>
+    <t>(H-M-L)</t>
+  </si>
+  <si>
+    <t>ss,ss,ss</t>
+  </si>
+  <si>
+    <t>bitcount,jpeg,jpeg</t>
+  </si>
+  <si>
+    <t>bitcount, ss, ss</t>
+  </si>
+  <si>
+    <t>bitcount-ss, jpeg, jpeg</t>
+  </si>
+  <si>
+    <t>bitcount,bitcount,bitcount-ss</t>
+  </si>
+  <si>
+    <t>bitcount,ss,bitcount</t>
+  </si>
+  <si>
+    <t>bitcount,bitcount,ss</t>
+  </si>
+  <si>
+    <t>bc,bc,ss</t>
+  </si>
+  <si>
+    <t>bc,jpeg,bc</t>
+  </si>
+  <si>
+    <t>ss,ss,jpeg</t>
+  </si>
+  <si>
+    <t>jpeg,jpeg,ss</t>
+  </si>
+  <si>
+    <t>ss,ss,bc</t>
+  </si>
+  <si>
+    <t>jpeg,jpeg,jpeg</t>
+  </si>
+  <si>
+    <t>bc,bc,bc</t>
+  </si>
+  <si>
+    <t>bc,jpeg,ss</t>
+  </si>
+  <si>
+    <t>ss,jpeg,ss</t>
+  </si>
+  <si>
+    <t>bc,ss,bc</t>
+  </si>
+  <si>
+    <t>jpeg,ss,bc</t>
+  </si>
+  <si>
+    <t>jpeg-bc,jpeg,jpeg</t>
   </si>
 </sst>
 </file>
@@ -451,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="95" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,9 +570,13 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -490,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -525,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +672,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -595,7 +707,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -630,7 +742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -656,7 +768,7 @@
         <v>1625.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -682,7 +794,7 @@
         <v>1616.75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -708,7 +820,7 @@
         <v>1693.6818181799999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -734,7 +846,7 @@
         <v>1560.22222222</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -759,8 +871,23 @@
       <c r="I10">
         <v>1556.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -788,8 +915,26 @@
       <c r="I11">
         <v>2417.8965517199999</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -814,8 +959,20 @@
       <c r="I12">
         <v>2344.2333333299998</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -840,8 +997,20 @@
       <c r="I13">
         <v>2322.96666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -866,8 +1035,20 @@
       <c r="I14">
         <v>1622.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -892,8 +1073,20 @@
       <c r="I15">
         <v>1629.16666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -918,8 +1111,20 @@
       <c r="I16">
         <v>1613.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -944,8 +1149,20 @@
       <c r="I17">
         <v>1625.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -970,8 +1187,20 @@
       <c r="I18">
         <v>1564.22222222</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1225,20 @@
       <c r="I19">
         <v>1536.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1025,8 +1266,20 @@
       <c r="I20">
         <v>2351.8148148099999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1305,7 @@
         <v>2335.4137931</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1331,7 @@
         <v>2334.5862069</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1357,7 @@
         <v>1594.9375</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1383,7 @@
         <v>1629.61538462</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1409,7 @@
         <v>1605.91666667</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1435,7 @@
         <v>1648.8571428600001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1461,7 @@
         <v>1530.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1487,7 @@
         <v>1538.1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1263,7 +1516,7 @@
         <v>2421.0357142900002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1542,7 @@
         <v>2399.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1568,7 @@
         <v>2411.8275862099999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>3</v>
       </c>

--- a/final_data/datasheet.xlsx
+++ b/final_data/datasheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>resnet, jpeg</t>
   </si>
@@ -228,13 +228,97 @@
   </si>
   <si>
     <t>jpeg-bc,jpeg,jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc 11 </t>
+  </si>
+  <si>
+    <t>jpeg 5</t>
+  </si>
+  <si>
+    <t>ss 11</t>
+  </si>
+  <si>
+    <t>bc 8</t>
+  </si>
+  <si>
+    <t>jpeg 12</t>
+  </si>
+  <si>
+    <t>ss 10</t>
+  </si>
+  <si>
+    <t>jpeg 6</t>
+  </si>
+  <si>
+    <t>ss 12</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>f for ResNet</t>
+  </si>
+  <si>
+    <t>f for GoogLeNet</t>
+  </si>
+  <si>
+    <t>f for AlexNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc 3 </t>
+  </si>
+  <si>
+    <t>jpeg 3</t>
+  </si>
+  <si>
+    <t>ss 3</t>
+  </si>
+  <si>
+    <t>bc 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpeg 0 </t>
+  </si>
+  <si>
+    <t>ss 6</t>
+  </si>
+  <si>
+    <t>bc 5</t>
+  </si>
+  <si>
+    <t>jpeg 2</t>
+  </si>
+  <si>
+    <t>ss 2</t>
+  </si>
+  <si>
+    <t>ss 4</t>
+  </si>
+  <si>
+    <t>bc 2</t>
+  </si>
+  <si>
+    <t>jpeg 4</t>
+  </si>
+  <si>
+    <t>bc 1</t>
+  </si>
+  <si>
+    <t>bc 4</t>
+  </si>
+  <si>
+    <t>ss 5</t>
+  </si>
+  <si>
+    <t>bc 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,13 +340,77 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -274,16 +422,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I9" zoomScale="132" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,19 +1035,19 @@
       <c r="I10">
         <v>1556.2</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -915,22 +1079,22 @@
       <c r="I11">
         <v>2417.8965517199999</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -959,7 +1123,7 @@
       <c r="I12">
         <v>2344.2333333299998</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L12" t="s">
@@ -997,7 +1161,7 @@
       <c r="I13">
         <v>2322.96666667</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L13" t="s">
@@ -1035,7 +1199,7 @@
       <c r="I14">
         <v>1622.2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="L14" t="s">
@@ -1073,7 +1237,7 @@
       <c r="I15">
         <v>1629.16666667</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L15" t="s">
@@ -1111,7 +1275,7 @@
       <c r="I16">
         <v>1613.75</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L16" t="s">
@@ -1149,7 +1313,7 @@
       <c r="I17">
         <v>1625.6</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="s">
@@ -1187,7 +1351,7 @@
       <c r="I18">
         <v>1564.22222222</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L18" t="s">
@@ -1225,7 +1389,7 @@
       <c r="I19">
         <v>1536.7</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L19" t="s">
@@ -1266,7 +1430,7 @@
       <c r="I20">
         <v>2351.8148148099999</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L20" t="s">
@@ -1330,6 +1494,18 @@
       <c r="I22">
         <v>2334.5862069</v>
       </c>
+      <c r="K22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -1356,6 +1532,15 @@
       <c r="I23">
         <v>1594.9375</v>
       </c>
+      <c r="L23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1382,6 +1567,15 @@
       <c r="I24">
         <v>1629.61538462</v>
       </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -1460,6 +1654,18 @@
       <c r="I27">
         <v>1530.5</v>
       </c>
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
@@ -1486,6 +1692,18 @@
       <c r="I28">
         <v>1538.1</v>
       </c>
+      <c r="K28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1515,6 +1733,18 @@
       <c r="I29">
         <v>2421.0357142900002</v>
       </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -1567,6 +1797,18 @@
       <c r="I31">
         <v>2411.8275862099999</v>
       </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -1593,8 +1835,20 @@
       <c r="I32">
         <v>1656.9444444400001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -1619,8 +1873,20 @@
       <c r="I33">
         <v>1662.78571429</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1912,7 @@
         <v>1674.3571428600001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -1671,8 +1937,20 @@
       <c r="I35">
         <v>1609.71428571</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -1697,8 +1975,20 @@
       <c r="I36">
         <v>1584.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -1723,8 +2013,20 @@
       <c r="I37">
         <v>1587.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +2055,7 @@
         <v>2432.5714285700001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +2081,7 @@
         <v>2429.1290322599998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>2</v>
       </c>
@@ -1805,7 +2107,7 @@
         <v>2413.3666666700001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +2133,7 @@
         <v>1656.5555555599999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +2159,7 @@
         <v>1672.5714285700001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +2185,7 @@
         <v>1657.21428571</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -1909,7 +2211,7 @@
         <v>1623.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +2237,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +2263,7 @@
         <v>1543.4545454500001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +2292,7 @@
         <v>2422.6785714299999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>1</v>
       </c>

--- a/final_data/datasheet.xlsx
+++ b/final_data/datasheet.xlsx
@@ -251,9 +251,6 @@
     <t>jpeg 6</t>
   </si>
   <si>
-    <t>ss 12</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>bc 0</t>
+  </si>
+  <si>
+    <t>ss 13</t>
   </si>
 </sst>
 </file>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I9" zoomScale="132" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G13" zoomScale="132" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1495,7 @@
         <v>2334.5862069</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>67</v>
@@ -1574,7 +1574,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1655,16 +1655,16 @@
         <v>1530.5</v>
       </c>
       <c r="K27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1693,16 +1693,16 @@
         <v>1538.1</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1734,16 +1734,16 @@
         <v>2421.0357142900002</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -1798,16 +1798,16 @@
         <v>2411.8275862099999</v>
       </c>
       <c r="K31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>1656.9444444400001</v>
       </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>73</v>
@@ -1874,16 +1874,16 @@
         <v>1662.78571429</v>
       </c>
       <c r="K33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -1938,16 +1938,16 @@
         <v>1609.71428571</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="s">
         <v>91</v>
-      </c>
-      <c r="P35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -1976,16 +1976,16 @@
         <v>1584.5</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>73</v>
       </c>
       <c r="P36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2014,16 +2014,16 @@
         <v>1587.5</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">

--- a/final_data/datasheet.xlsx
+++ b/final_data/datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
   <si>
     <t>resnet, jpeg</t>
   </si>
@@ -182,12 +182,6 @@
     <t>bitcount, ss, ss</t>
   </si>
   <si>
-    <t>bitcount-ss, jpeg, jpeg</t>
-  </si>
-  <si>
-    <t>bitcount,bitcount,bitcount-ss</t>
-  </si>
-  <si>
     <t>bitcount,ss,bitcount</t>
   </si>
   <si>
@@ -227,30 +221,6 @@
     <t>jpeg,ss,bc</t>
   </si>
   <si>
-    <t>jpeg-bc,jpeg,jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bc 11 </t>
-  </si>
-  <si>
-    <t>jpeg 5</t>
-  </si>
-  <si>
-    <t>ss 11</t>
-  </si>
-  <si>
-    <t>bc 8</t>
-  </si>
-  <si>
-    <t>jpeg 12</t>
-  </si>
-  <si>
-    <t>ss 10</t>
-  </si>
-  <si>
-    <t>jpeg 6</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
@@ -263,55 +233,19 @@
     <t>f for AlexNet</t>
   </si>
   <si>
-    <t xml:space="preserve">bc 3 </t>
+    <t>bitcount,bitcount,bitcount</t>
   </si>
   <si>
-    <t>jpeg 3</t>
+    <t>ss jpeg, jpeg</t>
   </si>
   <si>
-    <t>ss 3</t>
+    <t>jpeg</t>
   </si>
   <si>
-    <t>bc 3</t>
+    <t>bitcount</t>
   </si>
   <si>
-    <t xml:space="preserve">jpeg 0 </t>
-  </si>
-  <si>
-    <t>ss 6</t>
-  </si>
-  <si>
-    <t>bc 5</t>
-  </si>
-  <si>
-    <t>jpeg 2</t>
-  </si>
-  <si>
-    <t>ss 2</t>
-  </si>
-  <si>
-    <t>ss 4</t>
-  </si>
-  <si>
-    <t>bc 2</t>
-  </si>
-  <si>
-    <t>jpeg 4</t>
-  </si>
-  <si>
-    <t>bc 1</t>
-  </si>
-  <si>
-    <t>bc 4</t>
-  </si>
-  <si>
-    <t>ss 5</t>
-  </si>
-  <si>
-    <t>bc 0</t>
-  </si>
-  <si>
-    <t>ss 13</t>
+    <t>stringsearch</t>
   </si>
 </sst>
 </file>
@@ -422,8 +356,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,11 +381,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,6 +400,4925 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Best CPU Benchmarks Across All Combinamtion of Frequencies and DNN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bitcount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$22:$M$22,Sheet1!$P$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$23:$M$23,Sheet1!$P$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stringsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$24:$M$24,Sheet1!$P$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1716364816"/>
+        <c:axId val="1718752768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1716364816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718752768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1718752768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1716364816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Best CPU Benchmarks Across All Combinamtion of Frequencies for ResNet-152</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bitcount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$27:$M$27,Sheet1!$P$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$28:$M$28,Sheet1!$P$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stringsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.116511410771344"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$29:$M$29,Sheet1!$P$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1746751184"/>
+        <c:axId val="1746753744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1746751184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746753744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1746753744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746751184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Best CPU Benchmarks Across All Combinamtion of Frequencies and GoogLeNet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bitcount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$31:$M$31,Sheet1!$P$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$32:$M$32,Sheet1!$P$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stringsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.139807691578784"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$33:$M$33,Sheet1!$P$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1750598640"/>
+        <c:axId val="1750579216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1750598640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750579216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1750579216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750598640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Best CPU Benchmarks Across All Combinamtion of Frequencies and AlexNet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bitcount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$35:$M$35,Sheet1!$P$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$36:$M$36,Sheet1!$P$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stringsearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$L$11:$M$11,Sheet1!$P$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Latency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$37:$M$37,Sheet1!$P$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1749118976"/>
+        <c:axId val="1749121264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1749118976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749121264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1749121264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749118976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658090</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>750454</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769696</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>125653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>135275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>135274</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,8 +5586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G13" zoomScale="132" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G88" zoomScale="132" workbookViewId="0">
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,6 +5596,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
@@ -1168,10 +6030,10 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s">
         <v>51</v>
-      </c>
-      <c r="P13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1206,10 +6068,10 @@
         <v>49</v>
       </c>
       <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s">
         <v>52</v>
-      </c>
-      <c r="P14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1241,13 +6103,13 @@
         <v>37</v>
       </c>
       <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
         <v>55</v>
-      </c>
-      <c r="M15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1285,7 +6147,7 @@
         <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1317,13 +6179,13 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1355,13 +6217,13 @@
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1393,13 +6255,13 @@
         <v>44</v>
       </c>
       <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s">
         <v>62</v>
-      </c>
-      <c r="M19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1434,13 +6296,13 @@
         <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1494,17 +6356,20 @@
       <c r="I22">
         <v>2334.5862069</v>
       </c>
+      <c r="J22" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="K22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="L22" s="4">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1532,14 +6397,17 @@
       <c r="I23">
         <v>1594.9375</v>
       </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P23" t="s">
-        <v>73</v>
+      <c r="K23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1567,14 +6435,17 @@
       <c r="I24">
         <v>1629.61538462</v>
       </c>
-      <c r="L24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="K24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>94</v>
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="P24" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1654,17 +6525,20 @@
       <c r="I27">
         <v>1530.5</v>
       </c>
-      <c r="K27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P27" t="s">
-        <v>91</v>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1692,17 +6566,17 @@
       <c r="I28">
         <v>1538.1</v>
       </c>
-      <c r="K28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" t="s">
-        <v>85</v>
-      </c>
-      <c r="P28" t="s">
-        <v>82</v>
+      <c r="K28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="4">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1733,17 +6607,17 @@
       <c r="I29">
         <v>2421.0357142900002</v>
       </c>
-      <c r="K29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" t="s">
-        <v>87</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>92</v>
+      <c r="K29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="P29" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -1797,17 +6671,20 @@
       <c r="I31">
         <v>2411.8275862099999</v>
       </c>
-      <c r="K31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L31" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" t="s">
-        <v>88</v>
-      </c>
-      <c r="P31" t="s">
-        <v>93</v>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -1835,17 +6712,17 @@
       <c r="I32">
         <v>1656.9444444400001</v>
       </c>
-      <c r="K32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" t="s">
-        <v>82</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>73</v>
+      <c r="K32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>4</v>
+      </c>
+      <c r="P32" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -1873,17 +6750,17 @@
       <c r="I33">
         <v>1662.78571429</v>
       </c>
-      <c r="K33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M33" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" t="s">
-        <v>80</v>
+      <c r="K33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="4">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -1937,17 +6814,20 @@
       <c r="I35">
         <v>1609.71428571</v>
       </c>
-      <c r="K35" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" t="s">
-        <v>90</v>
-      </c>
-      <c r="P35" t="s">
-        <v>91</v>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -1975,17 +6855,17 @@
       <c r="I36">
         <v>1584.5</v>
       </c>
-      <c r="K36" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" t="s">
-        <v>85</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P36" t="s">
-        <v>82</v>
+      <c r="K36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36" s="4">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2013,17 +6893,17 @@
       <c r="I37">
         <v>1587.5</v>
       </c>
-      <c r="K37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" t="s">
-        <v>80</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>92</v>
+      <c r="K37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="P37" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -3325,5 +8205,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>